--- a/InputFile.xlsx
+++ b/InputFile.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>Younge's</t>
   </si>
@@ -40,6 +40,15 @@
   </si>
   <si>
     <t>Width</t>
+  </si>
+  <si>
+    <t>String Prop</t>
+  </si>
+  <si>
+    <t>Mass</t>
+  </si>
+  <si>
+    <t>Length</t>
   </si>
 </sst>
 </file>
@@ -376,10 +385,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -387,7 +396,7 @@
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -406,8 +415,14 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:8">
       <c r="B2">
         <v>6894757290</v>
       </c>
@@ -424,25 +439,40 @@
         <f>E2*937</f>
         <v>1551.0161000000001</v>
       </c>
+      <c r="H2">
+        <v>200000000000</v>
+      </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:8">
       <c r="B3" t="s">
         <v>6</v>
       </c>
+      <c r="H3" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:8">
       <c r="B4">
         <v>470</v>
       </c>
+      <c r="H4">
+        <v>1.6442700000000001E-2</v>
+      </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:8">
       <c r="B5" t="s">
         <v>7</v>
       </c>
+      <c r="H5" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:8">
       <c r="B6">
         <v>5.0799999999999998E-2</v>
+      </c>
+      <c r="H6">
+        <v>1.4732000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/InputFile.xlsx
+++ b/InputFile.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>Younge's</t>
   </si>
@@ -49,6 +49,9 @@
   </si>
   <si>
     <t>Length</t>
+  </si>
+  <si>
+    <t>Radius</t>
   </si>
 </sst>
 </file>
@@ -385,10 +388,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -436,8 +439,8 @@
         <v>1.6553</v>
       </c>
       <c r="F2">
-        <f>E2*937</f>
-        <v>1551.0161000000001</v>
+        <f>E2*937/1000</f>
+        <v>1.5510161</v>
       </c>
       <c r="H2">
         <v>200000000000</v>
@@ -473,6 +476,16 @@
       </c>
       <c r="H6">
         <v>1.4732000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="H7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="H8">
+        <v>1.5874999999999999E-3</v>
       </c>
     </row>
   </sheetData>

--- a/InputFile.xlsx
+++ b/InputFile.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>Younge's</t>
   </si>
@@ -52,6 +52,18 @@
   </si>
   <si>
     <t>Radius</t>
+  </si>
+  <si>
+    <t>Max tension</t>
+  </si>
+  <si>
+    <t>Max compression</t>
+  </si>
+  <si>
+    <t>Max shear</t>
+  </si>
+  <si>
+    <t>Flexure max</t>
   </si>
 </sst>
 </file>
@@ -388,10 +400,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -479,13 +491,49 @@
       </c>
     </row>
     <row r="7" spans="1:8">
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
       <c r="H7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:8">
+      <c r="B8">
+        <v>1790000</v>
+      </c>
       <c r="H8">
         <v>1.5874999999999999E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="B10">
+        <v>16500000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="B12">
+        <v>5560000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="B14">
+        <v>24800000</v>
       </c>
     </row>
   </sheetData>

--- a/InputFile.xlsx
+++ b/InputFile.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="45" windowWidth="20730" windowHeight="11760"/>
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -69,8 +69,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -190,6 +190,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -224,6 +225,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -399,19 +401,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -437,7 +439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B2">
         <v>6894757290</v>
       </c>
@@ -458,7 +460,7 @@
         <v>200000000000</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>6</v>
       </c>
@@ -466,7 +468,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>470</v>
       </c>
@@ -474,7 +476,7 @@
         <v>1.6442700000000001E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>7</v>
       </c>
@@ -482,15 +484,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B6">
-        <v>5.0799999999999998E-2</v>
+        <v>4.4450000000000003E-2</v>
       </c>
       <c r="H6">
         <v>1.4732000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>12</v>
       </c>
@@ -498,7 +500,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>1790000</v>
       </c>
@@ -506,32 +508,32 @@
         <v>1.5874999999999999E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>16500000</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>5560000</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>24800000</v>
       </c>
@@ -542,24 +544,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/InputFile.xlsx
+++ b/InputFile.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>Younge's</t>
   </si>
@@ -46,9 +46,6 @@
   </si>
   <si>
     <t>Mass</t>
-  </si>
-  <si>
-    <t>Length</t>
   </si>
   <si>
     <t>Radius</t>
@@ -405,12 +402,13 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -489,14 +487,11 @@
         <v>4.4450000000000003E-2</v>
       </c>
       <c r="H6">
-        <v>1.4732000000000001</v>
+        <v>1.5874999999999999E-3</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7" t="s">
         <v>11</v>
       </c>
     </row>
@@ -504,13 +499,10 @@
       <c r="B8">
         <v>1790000</v>
       </c>
-      <c r="H8">
-        <v>1.5874999999999999E-3</v>
-      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -520,7 +512,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -530,7 +522,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
